--- a/classfiers/mega/knn/nearmiss/mega-knn-nearmiss-results.xlsx
+++ b/classfiers/mega/knn/nearmiss/mega-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9215686274509804</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9548611111111109</v>
+        <v>0.9186197916666666</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7466666666666666</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8346631205673758</v>
+        <v>0.9878102836879432</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9690721649484536</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9893617021276596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8599290780141844</v>
+        <v>0.999113475177305</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="D6" t="n">
-        <v>0.896551724137931</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9375</v>
+        <v>0.9583333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9546666666666667</v>
+        <v>0.9657407407407408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8316489361702128</v>
+        <v>0.9332446808510639</v>
       </c>
       <c r="D7" t="n">
-        <v>0.880429125643364</v>
+        <v>0.9451711882961471</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9152630023640661</v>
+        <v>0.9727753767730496</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/knn/nearmiss/mega-knn-nearmiss-results.xlsx
+++ b/classfiers/mega/knn/nearmiss/mega-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9215686274509804</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9186197916666666</v>
+        <v>0.9246828752642706</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D3" t="n">
-        <v>0.968421052631579</v>
+        <v>0.9761904761904763</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9878102836879432</v>
+        <v>0.9878435517970402</v>
       </c>
     </row>
     <row r="4">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999113475177305</v>
+        <v>0.9989429175475687</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7887323943661972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9186046511627908</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9657407407407408</v>
+        <v>0.975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9332446808510639</v>
+        <v>0.9071881606765327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9451711882961471</v>
+        <v>0.9329487959360216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9727753767730496</v>
+        <v>0.966014799154334</v>
       </c>
     </row>
   </sheetData>
